--- a/pred_ohlcv/54_21/2020-01-20 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 TRV ohlcv.xlsx
@@ -2680,7 +2680,7 @@
         <v>-5313809.22938055</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-5622653.79878055</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5645532.323080551</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-6065383.111980551</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-6187650.834580551</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-6996189.08678055</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-6996098.08678055</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-7004071.13548055</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-7047765.94438055</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-7150646.72828055</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-7150646.72828055</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-7149596.72828055</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-7267295.07188055</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-7267254.07188055</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7269021.140954321</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-9718385.570154322</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-11782476.58049234</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-11934861.70729234</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-12280484.99529234</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-12280441.99529234</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-12299770.48919234</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-12297583.77309234</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-12297540.77309234</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-12335138.75539234</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-12386807.29169234</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-12344770.28449234</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-12535413.3749415</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-12655488.5554415</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-12653152.9177415</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-12885754.7323415</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 TRV ohlcv.xlsx
@@ -2680,7 +2680,7 @@
         <v>-5313809.22938055</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-5622653.79878055</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-5722286.98178055</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-5645532.323080551</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-6065383.111980551</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-6187650.834580551</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-6198865.485480551</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-6996189.08678055</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-6996098.08678055</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-7004071.13548055</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-7047765.94438055</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-7150646.72828055</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-7150646.72828055</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-7149596.72828055</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-7267295.07188055</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-7267254.07188055</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-7269021.140954321</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-9718385.570154322</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-11782476.58049234</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-11934861.70729234</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-12280484.99529234</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-12280441.99529234</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-12299770.48919234</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-12297583.77309234</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-12297540.77309234</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-12335138.75539234</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-12386807.29169234</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-12344770.28449234</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-12345021.88419234</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-12344978.88419234</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-12535413.3749415</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-12655488.5554415</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-12653152.9177415</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-12885754.7323415</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
